--- a/添加数据.xlsx
+++ b/添加数据.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\HBCustomLib\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81EDE74-1DC0-42F2-908C-B016F85BB16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6630" yWindow="5565" windowWidth="25695" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="opaque_material" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +24,108 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roughness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conductivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>density</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specific_heat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thermal_absorptance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solar_absorptance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible_absorptance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WZW Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestIdentifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smooth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>小数</t>
+  </si>
+  <si>
+    <t>WZW Test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WZW Test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +133,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +163,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +463,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="15.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.15989299909405399</v>
+      </c>
+      <c r="G3" s="1">
+        <v>800.00182919117594</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1089.2971854559401</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.15989299909405399</v>
+      </c>
+      <c r="G4" s="1">
+        <v>800.00182919117594</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1089.2971854559401</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.15989299909405399</v>
+      </c>
+      <c r="G5" s="1">
+        <v>800.00182919117594</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1089.2971854559401</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:XFD1" xr:uid="{08756153-488F-40C4-B8C3-A5B1772C490C}">
+      <formula1>"整数,小数,字符串"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/添加数据.xlsx
+++ b/添加数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\HBCustomLib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81EDE74-1DC0-42F2-908C-B016F85BB16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF666A1D-D32E-4423-80BA-C7243B77F6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="5565" windowWidth="25695" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2475" yWindow="3660" windowWidth="25695" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="opaque_material" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,19 +105,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>testkey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
+    <t>小数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,7 +474,7 @@
     <col min="13" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -518,13 +506,10 @@
         <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,11 +543,8 @@
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -596,11 +578,8 @@
       <c r="K3" s="1">
         <v>0.5</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -631,14 +610,8 @@
       <c r="J4" s="1">
         <v>0.7</v>
       </c>
-      <c r="K4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -665,20 +638,11 @@
       </c>
       <c r="I5" s="1">
         <v>0.9</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:XFD1" xr:uid="{08756153-488F-40C4-B8C3-A5B1772C490C}">
       <formula1>"整数,小数,字符串"</formula1>
     </dataValidation>
